--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,15 +46,15 @@
     <t>useless</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -67,154 +67,163 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>christmas</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>wife</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>cooking</t>
+    <t>keeps</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
+    <t>works</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>works</t>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>new</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>also</t>
   </si>
   <si>
     <t>makes</t>
@@ -226,46 +235,31 @@
     <t>clean</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>also</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>like</t>
+    <t>use</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>use</t>
   </si>
   <si>
     <t>used</t>
@@ -629,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,7 +634,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -698,13 +692,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -716,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -740,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -748,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.675</v>
+        <v>0.7</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -766,19 +760,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.890625</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -790,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -798,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4141414141414141</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -816,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.8808049535603715</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>569</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>569</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -840,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -848,13 +842,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4108527131782946</v>
+        <v>0.404040404040404</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -866,19 +860,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8792569659442725</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L6">
-        <v>568</v>
+        <v>58</v>
       </c>
       <c r="M6">
-        <v>568</v>
+        <v>58</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -890,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -898,13 +892,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.282051282051282</v>
+        <v>0.4031007751937984</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -916,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K7">
-        <v>0.7826086956521739</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -940,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -948,13 +942,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1351351351351351</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -966,19 +960,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K8">
-        <v>0.7586206896551724</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -990,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -998,13 +992,13 @@
         <v>21</v>
       </c>
       <c r="K9">
-        <v>0.7229437229437229</v>
+        <v>0.6983050847457627</v>
       </c>
       <c r="L9">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="M9">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1016,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1024,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="K10">
-        <v>0.7123287671232876</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="L10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,13 +1044,13 @@
         <v>23</v>
       </c>
       <c r="K11">
-        <v>0.7045454545454546</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1070,13 @@
         <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7016949152542373</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L12">
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1094,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>88</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1102,13 +1096,13 @@
         <v>25</v>
       </c>
       <c r="K13">
-        <v>0.6753246753246753</v>
+        <v>0.6476725521669342</v>
       </c>
       <c r="L13">
-        <v>52</v>
+        <v>807</v>
       </c>
       <c r="M13">
-        <v>52</v>
+        <v>807</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1120,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1128,13 +1122,13 @@
         <v>26</v>
       </c>
       <c r="K14">
-        <v>0.6581059390048154</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L14">
-        <v>820</v>
+        <v>43</v>
       </c>
       <c r="M14">
-        <v>820</v>
+        <v>43</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1146,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>426</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1154,13 +1148,13 @@
         <v>27</v>
       </c>
       <c r="K15">
-        <v>0.647887323943662</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1172,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1180,13 +1174,13 @@
         <v>28</v>
       </c>
       <c r="K16">
-        <v>0.6470588235294118</v>
+        <v>0.5828571428571429</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1198,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1206,13 +1200,13 @@
         <v>29</v>
       </c>
       <c r="K17">
-        <v>0.631578947368421</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="L17">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="M17">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1224,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1232,13 +1226,13 @@
         <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6</v>
+        <v>0.5625</v>
       </c>
       <c r="L18">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1250,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1258,13 +1252,13 @@
         <v>31</v>
       </c>
       <c r="K19">
-        <v>0.578125</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L19">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M19">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1276,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1284,13 +1278,13 @@
         <v>32</v>
       </c>
       <c r="K20">
-        <v>0.5576923076923077</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="L20">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1302,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1310,13 +1304,13 @@
         <v>33</v>
       </c>
       <c r="K21">
-        <v>0.5555555555555556</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L21">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1328,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1336,13 +1330,13 @@
         <v>34</v>
       </c>
       <c r="K22">
-        <v>0.5538461538461539</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1354,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1362,13 +1356,13 @@
         <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5428571428571428</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1380,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1388,13 +1382,13 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5416666666666666</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1406,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1414,13 +1408,13 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5416666666666666</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1440,13 +1434,13 @@
         <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5333333333333333</v>
+        <v>0.4759036144578313</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1458,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1466,13 +1460,13 @@
         <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5329341317365269</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L27">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="M27">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1484,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1492,13 +1486,13 @@
         <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5301204819277109</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L28">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1510,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1518,13 +1512,13 @@
         <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5263157894736842</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1536,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1544,13 +1538,13 @@
         <v>42</v>
       </c>
       <c r="K30">
-        <v>0.47</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L30">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M30">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1562,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1570,13 +1564,13 @@
         <v>43</v>
       </c>
       <c r="K31">
-        <v>0.4586466165413534</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L31">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1588,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1596,13 +1590,13 @@
         <v>44</v>
       </c>
       <c r="K32">
-        <v>0.427710843373494</v>
+        <v>0.4</v>
       </c>
       <c r="L32">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1614,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1622,13 +1616,13 @@
         <v>45</v>
       </c>
       <c r="K33">
-        <v>0.4007782101167315</v>
+        <v>0.4</v>
       </c>
       <c r="L33">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1640,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>154</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1648,13 +1642,13 @@
         <v>46</v>
       </c>
       <c r="K34">
-        <v>0.3872549019607843</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L34">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M34">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1666,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1674,13 +1668,13 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>0.3650793650793651</v>
+        <v>0.3813229571984436</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1692,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1700,13 +1694,13 @@
         <v>48</v>
       </c>
       <c r="K36">
-        <v>0.3552631578947368</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="L36">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1718,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1726,13 +1720,13 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>0.3538461538461539</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="L37">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M37">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1744,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1752,13 +1746,13 @@
         <v>50</v>
       </c>
       <c r="K38">
-        <v>0.3465753424657534</v>
+        <v>0.3397260273972603</v>
       </c>
       <c r="L38">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M38">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1770,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1778,13 +1772,13 @@
         <v>51</v>
       </c>
       <c r="K39">
-        <v>0.3333333333333333</v>
+        <v>0.3253588516746411</v>
       </c>
       <c r="L39">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="M39">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1796,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>54</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1804,13 +1798,13 @@
         <v>52</v>
       </c>
       <c r="K40">
-        <v>0.2966507177033493</v>
+        <v>0.3153153153153153</v>
       </c>
       <c r="L40">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="M40">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1822,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>147</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1830,13 +1824,13 @@
         <v>53</v>
       </c>
       <c r="K41">
-        <v>0.2949640287769784</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="L41">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M41">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1848,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>98</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1856,13 +1850,13 @@
         <v>54</v>
       </c>
       <c r="K42">
-        <v>0.2857142857142857</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L42">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M42">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1874,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1882,13 +1876,13 @@
         <v>55</v>
       </c>
       <c r="K43">
-        <v>0.2792792792792793</v>
+        <v>0.2932330827067669</v>
       </c>
       <c r="L43">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M43">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1900,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1908,13 +1902,13 @@
         <v>56</v>
       </c>
       <c r="K44">
-        <v>0.2772277227722773</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="L44">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M44">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1926,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1934,13 +1928,13 @@
         <v>57</v>
       </c>
       <c r="K45">
-        <v>0.2685185185185185</v>
+        <v>0.2847682119205298</v>
       </c>
       <c r="L45">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M45">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1952,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>79</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1960,13 +1954,13 @@
         <v>58</v>
       </c>
       <c r="K46">
-        <v>0.2619047619047619</v>
+        <v>0.2772277227722773</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1978,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1986,13 +1980,13 @@
         <v>59</v>
       </c>
       <c r="K47">
-        <v>0.2522522522522522</v>
+        <v>0.2497308934337998</v>
       </c>
       <c r="L47">
-        <v>28</v>
+        <v>232</v>
       </c>
       <c r="M47">
-        <v>28</v>
+        <v>232</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2004,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>83</v>
+        <v>697</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2012,13 +2006,13 @@
         <v>60</v>
       </c>
       <c r="K48">
-        <v>0.2518837459634015</v>
+        <v>0.2351097178683386</v>
       </c>
       <c r="L48">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="M48">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2030,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>695</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2038,13 +2032,13 @@
         <v>61</v>
       </c>
       <c r="K49">
-        <v>0.2450331125827815</v>
+        <v>0.223841059602649</v>
       </c>
       <c r="L49">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="M49">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2056,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>114</v>
+        <v>586</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2064,13 +2058,13 @@
         <v>62</v>
       </c>
       <c r="K50">
-        <v>0.231974921630094</v>
+        <v>0.2122762148337596</v>
       </c>
       <c r="L50">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="M50">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2082,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>245</v>
+        <v>616</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2090,25 +2084,25 @@
         <v>63</v>
       </c>
       <c r="K51">
-        <v>0.2163892445582586</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="L51">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="M51">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="N51">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O51">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>612</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2116,13 +2110,13 @@
         <v>64</v>
       </c>
       <c r="K52">
-        <v>0.2066225165562914</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="L52">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="M52">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2134,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>599</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2142,25 +2136,25 @@
         <v>65</v>
       </c>
       <c r="K53">
-        <v>0.1815718157181572</v>
+        <v>0.1864864864864865</v>
       </c>
       <c r="L53">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M53">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N53">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O53">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2168,13 +2162,13 @@
         <v>66</v>
       </c>
       <c r="K54">
-        <v>0.174496644295302</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="L54">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M54">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2186,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2194,13 +2188,13 @@
         <v>67</v>
       </c>
       <c r="K55">
-        <v>0.1586715867158671</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L55">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M55">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2212,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2220,25 +2214,25 @@
         <v>68</v>
       </c>
       <c r="K56">
-        <v>0.1526195899772209</v>
+        <v>0.1503579952267303</v>
       </c>
       <c r="L56">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M56">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N56">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>372</v>
+        <v>356</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2246,25 +2240,25 @@
         <v>69</v>
       </c>
       <c r="K57">
-        <v>0.1513157894736842</v>
+        <v>0.1435643564356436</v>
       </c>
       <c r="L57">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="M57">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>387</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2272,13 +2266,13 @@
         <v>70</v>
       </c>
       <c r="K58">
-        <v>0.1479713603818616</v>
+        <v>0.1402214022140221</v>
       </c>
       <c r="L58">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="M58">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2290,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>357</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2298,13 +2292,13 @@
         <v>71</v>
       </c>
       <c r="K59">
-        <v>0.1402439024390244</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="L59">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M59">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2316,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>141</v>
+        <v>380</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2324,13 +2318,13 @@
         <v>72</v>
       </c>
       <c r="K60">
-        <v>0.1299435028248588</v>
+        <v>0.1337719298245614</v>
       </c>
       <c r="L60">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="M60">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2342,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>154</v>
+        <v>395</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2350,25 +2344,25 @@
         <v>73</v>
       </c>
       <c r="K61">
-        <v>0.1287128712871287</v>
+        <v>0.1305841924398626</v>
       </c>
       <c r="L61">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M61">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="N61">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>176</v>
+        <v>253</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2376,13 +2370,13 @@
         <v>74</v>
       </c>
       <c r="K62">
-        <v>0.1176470588235294</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L62">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="M62">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2394,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>210</v>
+        <v>361</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2402,13 +2396,13 @@
         <v>75</v>
       </c>
       <c r="K63">
-        <v>0.1167883211678832</v>
+        <v>0.1092436974789916</v>
       </c>
       <c r="L63">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="M63">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2420,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>363</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2428,25 +2422,25 @@
         <v>76</v>
       </c>
       <c r="K64">
-        <v>0.1137931034482759</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="L64">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="M64">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="N64">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O64">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>257</v>
+        <v>986</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2454,25 +2448,25 @@
         <v>77</v>
       </c>
       <c r="K65">
-        <v>0.1111111111111111</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="L65">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="M65">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>240</v>
+        <v>644</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2480,25 +2474,25 @@
         <v>78</v>
       </c>
       <c r="K66">
-        <v>0.09056956115779645</v>
+        <v>0.07103825136612021</v>
       </c>
       <c r="L66">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="M66">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="N66">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>974</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2506,25 +2500,25 @@
         <v>79</v>
       </c>
       <c r="K67">
-        <v>0.09041095890410959</v>
+        <v>0.05826086956521739</v>
       </c>
       <c r="L67">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="M67">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="N67">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="O67">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>332</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2532,25 +2526,25 @@
         <v>80</v>
       </c>
       <c r="K68">
-        <v>0.08189655172413793</v>
+        <v>0.05583756345177665</v>
       </c>
       <c r="L68">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="M68">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="N68">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>639</v>
+        <v>372</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2558,25 +2552,25 @@
         <v>81</v>
       </c>
       <c r="K69">
-        <v>0.0583756345177665</v>
+        <v>0.05545286506469501</v>
       </c>
       <c r="L69">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M69">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>371</v>
+        <v>511</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2584,77 +2578,25 @@
         <v>82</v>
       </c>
       <c r="K70">
-        <v>0.05350553505535055</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="L70">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M70">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="71" spans="10:17">
-      <c r="J71" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K71">
-        <v>0.05103806228373702</v>
-      </c>
-      <c r="L71">
-        <v>59</v>
-      </c>
-      <c r="M71">
-        <v>60</v>
-      </c>
-      <c r="N71">
-        <v>0.98</v>
-      </c>
-      <c r="O71">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P71" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q71">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="72" spans="10:17">
-      <c r="J72" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K72">
-        <v>0.05</v>
-      </c>
-      <c r="L72">
-        <v>26</v>
-      </c>
-      <c r="M72">
-        <v>28</v>
-      </c>
-      <c r="N72">
-        <v>0.93</v>
-      </c>
-      <c r="O72">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P72" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q72">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
